--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846741</v>
+        <v>4084270.130364928</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.675581478394522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>257.0252088052774</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>65.23699284296798</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>31.84002290953777</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>142.6624555512285</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>142.2935173095796</v>
+        <v>224.9913792784364</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>323.1443359086381</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>93.90141682539254</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.2815965675154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>31.40247677522967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>241.7859926947189</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>105.8965430419528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>265.56576948799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.25557150216759</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.3219429113319</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>66.09841665934279</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>72.01539947949773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>18.16423677622388</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226523</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.2700607443044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>102.7673426709148</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881297</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>87.2147151485303</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C43" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.9410961977583</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.054351842972</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.054351842972</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>794.2251008249057</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.654191907093</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>662.2330318397999</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>662.2330318397999</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>662.2330318397999</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1019.519018857857</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>650.5565019174458</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>650.5565019174458</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E5" t="n">
-        <v>650.5565019174458</v>
+        <v>218.9153770867634</v>
       </c>
       <c r="F5" t="n">
-        <v>239.5705971278382</v>
+        <v>211.9698763375599</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>198.0464722761508</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>198.0464722761508</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.723949158871</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.723949158871</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.723949158871</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.258190897791</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1406.118858921979</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554.9812394948245</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0450565669176</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>554.9812394948245</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>554.9812394948245</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.9812394948245</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.842648463792</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.88013152338</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>958.6144329166298</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E8" t="n">
-        <v>572.8261803183855</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F8" t="n">
-        <v>565.880679569182</v>
+        <v>818.2674877574797</v>
       </c>
       <c r="G8" t="n">
-        <v>148.7928978056095</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>148.7928978056095</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374777</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
         <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1249.690811658358</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890256</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657334</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996628</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.934053515051</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782763</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527914</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527914</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.442488527914</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2072.442488527914</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2072.442488527914</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4871,37 +4871,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2284.210671126631</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.5607561309861</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>187.5607561309861</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>187.5607561309861</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>697.7705053114768</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>697.7705053114768</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>697.7705053114768</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>408.3533352745162</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>408.3533352745162</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5607561309861</v>
+        <v>867.3218978305129</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,16 +5044,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.71788640035</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639637</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3046.798896214207</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>2877.8627132863</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2418.621364762389</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>2913.946970978147</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>3511.325458604699</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>4138.923422159306</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>854.7852236114971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>704.6685841991614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>556.7554906167683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>409.8655431188579</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6694438337378</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6256,10 +6256,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3265.163417426591</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>3096.227234498685</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397696</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.218603191809</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.801433154848</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.811882256831</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>3446.811882256831</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,25 +6928,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,19 +6955,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4227.652312159533</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>470.7064074803617</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,25 +7639,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.73118040114</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>881.3796452313798</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>160.4088454694715</v>
       </c>
       <c r="N8" t="n">
-        <v>244.1047427675918</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478238</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>12.80230762322851</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>220.7351665485983</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.73700564187214</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>61.35027805667502</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>147.3599015160448</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.11201973523731</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>74.19629618688107</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.60007353871462</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>83.27114962944248</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.56191943763292</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>78.25894333072976</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C43" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.6435571543365</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="14">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.769864283</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
@@ -26355,7 +26355,7 @@
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481115</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.691380806</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.20749695238844e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630332</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682793</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682776</v>
+        <v>5677.536566682786</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682827</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682705</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.53656668271</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682678</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670416</v>
+        <v>-61707.60287670401</v>
       </c>
       <c r="C6" t="n">
-        <v>528260.2763378404</v>
+        <v>528260.2763378402</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.470244046</v>
+        <v>372456.4702440459</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808139043</v>
+        <v>-71053.53733574669</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994169</v>
+        <v>699999.154045059</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.5332994162</v>
+        <v>699999.1540450593</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994158</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068237</v>
+        <v>523575.9348524666</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.5332994165</v>
+        <v>699999.1540450592</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994165</v>
+        <v>699999.1540450593</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913579</v>
+        <v>575790.6433370009</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450596</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450597</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209783</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.0074601422884</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>156.7589612155176</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>81.42819913718988</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.9441471112572</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.268860693632746</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>144.2294810270114</v>
+        <v>61.53161905815463</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>89.77256803729864</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.59462406849775</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.15236607905379</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28800,16 +28800,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,13 +28857,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29985,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.097099422803036e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31308,19 +31308,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31478,7 +31478,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.9276108700249</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302386</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.948695672726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.763496930518</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106269</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34938,25 +34938,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770693</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>348.9941109496813</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4019275069679</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545558</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>122.5898101760556</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556946</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579416</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507077</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.922057956159</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>219.4190832899471</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>61.77582919629669</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084270.130364928</v>
+        <v>4086030.660667715</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>224.9913792784364</v>
+        <v>224.9913792784362</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>323.1443359086381</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>28.72347285659166</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>113.541358075969</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>241.7859926947189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>63.34420421319616</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>105.3219429113319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.3135037226523</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>102.7673426709148</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.2147151485303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4652,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
         <v>211.6913543878343</v>
@@ -4795,10 +4795,10 @@
         <v>818.2674877574797</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>401.1797059939071</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>82.95659076641664</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.0424953278208</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.473090199608</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>961.4835393015907</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.6909601580605</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2315.933335172869</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421608</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570408</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5895,16 +5895,16 @@
         <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.5626541092265</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232836</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232836</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,16 +6776,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
         <v>1373.553594266881</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2343.157686942974</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
@@ -7031,7 +7031,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828446</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,52 +7171,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>160.4088454694715</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,10 +8470,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.73700564187214</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>117.6820817884484</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.11201973523731</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.27114962944248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>78.25894333072976</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610239.5014876032</v>
+        <v>610239.5014876033</v>
       </c>
     </row>
     <row r="6">
@@ -26319,16 +26319,16 @@
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
@@ -26337,25 +26337,25 @@
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380806</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.20749695238844e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26423,13 +26423,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682727</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26447,16 +26447,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668271</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682678</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670401</v>
+        <v>-61707.60287670392</v>
       </c>
       <c r="C6" t="n">
         <v>528260.2763378402</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440459</v>
+        <v>372456.4702440461</v>
       </c>
       <c r="E6" t="n">
-        <v>-71053.53733574669</v>
+        <v>-70740.89600682558</v>
       </c>
       <c r="F6" t="n">
-        <v>699999.154045059</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="G6" t="n">
-        <v>699999.1540450593</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="H6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="I6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="J6" t="n">
-        <v>523575.9348524666</v>
+        <v>523888.5761813874</v>
       </c>
       <c r="K6" t="n">
-        <v>699999.1540450592</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="L6" t="n">
-        <v>699999.1540450593</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="M6" t="n">
-        <v>575790.6433370009</v>
+        <v>576103.2846659222</v>
       </c>
       <c r="N6" t="n">
-        <v>699999.1540450596</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="O6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="P6" t="n">
-        <v>699999.1540450597</v>
+        <v>700311.7953739807</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,10 +26986,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>61.53161905815463</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>89.77256803729864</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29985,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.097099422803036e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093084</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543346</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7502366106269</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,13 +35175,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>348.9941109496813</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,10 +35190,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949373</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997564</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>61.77582919629669</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
